--- a/data/Data Generating Process.xlsx
+++ b/data/Data Generating Process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algo\Papers\JRS\Derek Long Issue\Validation Stress\trunk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D709595-CF81-49E2-A8B0-8527A6C110CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85988EDE-92D6-4F23-91D8-DD9D6C88800C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-24345" windowWidth="16440" windowHeight="29040" firstSheet="2" activeTab="4" xr2:uid="{77EA0B1C-E96D-4326-9754-525C56ACB034}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="4" xr2:uid="{77EA0B1C-E96D-4326-9754-525C56ACB034}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Population" sheetId="12" r:id="rId1"/>
@@ -5189,8 +5189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CED6D09-4C4D-4DD3-B449-589489CC271F}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5308,13 +5308,13 @@
         <v>2650</v>
       </c>
       <c r="C2" s="11">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D2" s="6">
         <v>2300</v>
       </c>
       <c r="E2" s="11">
-        <v>800</v>
+        <v>310</v>
       </c>
       <c r="F2" s="6">
         <v>5500</v>
@@ -5404,13 +5404,13 @@
         <v>2650</v>
       </c>
       <c r="C3" s="11">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D3" s="6">
         <v>2300</v>
       </c>
       <c r="E3" s="6">
-        <v>800</v>
+        <v>310</v>
       </c>
       <c r="F3" s="6">
         <v>5500</v>
@@ -5496,191 +5496,189 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>2550</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2350</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="B4">
+        <v>2600</v>
+      </c>
+      <c r="C4">
+        <v>285</v>
+      </c>
+      <c r="D4">
+        <v>2375</v>
+      </c>
+      <c r="E4">
+        <v>295</v>
+      </c>
+      <c r="F4">
+        <v>5000</v>
+      </c>
+      <c r="G4">
+        <v>11750</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>7.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>17.5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>-1.5</v>
+      </c>
+      <c r="O4">
+        <v>1.5</v>
+      </c>
+      <c r="P4">
+        <v>0.625</v>
+      </c>
+      <c r="Q4">
+        <v>1.2</v>
+      </c>
+      <c r="R4">
+        <v>140</v>
+      </c>
+      <c r="S4">
+        <v>27.5</v>
+      </c>
+      <c r="T4">
+        <v>41</v>
+      </c>
+      <c r="U4">
+        <v>10.5</v>
+      </c>
+      <c r="V4">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="W4">
+        <v>0.1</v>
+      </c>
+      <c r="X4">
+        <v>18</v>
+      </c>
+      <c r="Y4">
+        <v>42</v>
+      </c>
+      <c r="Z4">
+        <v>3.5</v>
+      </c>
+      <c r="AA4">
+        <v>1.25</v>
+      </c>
+      <c r="AB4">
         <v>1000</v>
       </c>
-      <c r="F4" s="6">
-        <v>6500</v>
-      </c>
-      <c r="G4" s="6">
-        <v>15500</v>
-      </c>
-      <c r="H4" s="6">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6">
-        <v>35</v>
-      </c>
-      <c r="J4" s="6">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="L4" s="6">
-        <v>16</v>
-      </c>
-      <c r="M4" s="6">
-        <v>4</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-1.5</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="R4" s="6">
-        <v>110</v>
-      </c>
-      <c r="S4" s="6">
-        <v>20</v>
-      </c>
-      <c r="T4" s="6">
-        <v>40</v>
-      </c>
-      <c r="U4" s="6">
-        <v>11</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="X4" s="6">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="AC4" s="7">
+      <c r="AC4">
         <v>150000</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4">
         <v>600</v>
       </c>
-      <c r="AE4" s="4">
-        <f t="shared" ref="AE4" si="2">(AD4/1000)^2</f>
+      <c r="AE4">
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>2450</v>
-      </c>
-      <c r="C5" s="11">
-        <v>750</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2450</v>
-      </c>
-      <c r="E5" s="1">
-        <v>850</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3300</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>70</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="B5">
+        <v>2625</v>
+      </c>
+      <c r="C5">
+        <v>325</v>
+      </c>
+      <c r="D5">
+        <v>2325</v>
+      </c>
+      <c r="E5">
+        <v>320</v>
+      </c>
+      <c r="F5">
+        <v>6000</v>
+      </c>
+      <c r="G5">
+        <v>14500</v>
+      </c>
+      <c r="H5">
+        <v>22.5</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>1.85</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>6.5</v>
+      </c>
+      <c r="N5">
+        <v>-1.75</v>
+      </c>
+      <c r="O5">
+        <v>1.75</v>
+      </c>
+      <c r="P5">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="Q5">
+        <v>1.05</v>
+      </c>
+      <c r="R5">
+        <v>120</v>
+      </c>
+      <c r="S5">
+        <v>32.5</v>
+      </c>
+      <c r="T5">
+        <v>43.5</v>
+      </c>
+      <c r="U5">
+        <v>11.5</v>
+      </c>
+      <c r="V5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="W5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X5">
         <v>18</v>
       </c>
-      <c r="K5" s="1">
-        <v>-1.5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="R5" s="1">
-        <v>75</v>
-      </c>
-      <c r="S5" s="6">
-        <v>10</v>
-      </c>
-      <c r="T5" s="1">
-        <v>20</v>
-      </c>
-      <c r="U5" s="1">
-        <v>4</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="X5" s="6">
-        <v>18</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AB5" s="7">
+      <c r="Y5">
+        <v>55</v>
+      </c>
+      <c r="Z5">
+        <v>3.75</v>
+      </c>
+      <c r="AA5">
+        <v>1.75</v>
+      </c>
+      <c r="AB5">
         <v>1000</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5">
         <v>150000</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5">
         <v>600</v>
       </c>
-      <c r="AE5" s="4">
-        <f t="shared" ref="AE5" si="3">(AD5/1000)^2</f>
+      <c r="AE5">
         <v>0.36</v>
       </c>
     </row>
